--- a/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="58">
   <si>
     <t>TableTypeSetting</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>布尔值</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>field_bool</t>
   </si>
   <si>
     <t>{'公众号":"玩转游戏开发"}</t>
@@ -188,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -209,6 +218,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -222,8 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,32 +260,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,24 +290,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,10 +346,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,36 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,19 +377,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,163 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +568,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,15 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +628,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -633,190 +668,170 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1219,16 +1234,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -1260,10 +1275,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1309,7 +1324,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1344,7 +1359,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6">
@@ -1379,7 +1394,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7">
@@ -1417,7 +1432,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="D8" t="s">
@@ -1446,7 +1461,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9">
@@ -1481,7 +1496,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10">
@@ -1519,7 +1534,7 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11">
@@ -1663,16 +1678,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -1704,10 +1719,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1753,7 +1768,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C5">
@@ -1788,7 +1803,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C6">
@@ -1823,7 +1838,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C7">
@@ -1861,7 +1876,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
@@ -1890,7 +1905,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C9">
@@ -1925,7 +1940,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C10">
@@ -1963,7 +1978,7 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C11">
@@ -1998,42 +2013,42 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J5:J11">
@@ -2080,10 +2095,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2091,18 +2106,19 @@
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="30.375" customWidth="1"/>
-    <col min="12" max="12" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="30.375" customWidth="1"/>
+    <col min="13" max="13" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2112,111 +2128,120 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2226,293 +2251,369 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="2" t="s">
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="2" t="s">
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C7">
         <v>60000</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7">
         <v>60000</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
+      <c r="H8" t="s">
+        <v>39</v>
       </c>
       <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
         <v>36</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="2" t="s">
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
       <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="2" t="s">
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
       <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
         <v>36</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11">
         <v>300</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J5:J11">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:XFD11 $A12:$XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:L3 A4:I4 L4 A5:B5 A11 A6:A8 B6:B11">
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:G5 C6:G11">
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H6:H11">
+  <conditionalFormatting sqref="K5:K11">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I6:I11">
+  <conditionalFormatting sqref="L5:L11">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M11">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K6:K11">
+  <conditionalFormatting sqref="A12:C1048576 E12:XFD1048576 N1:XFD11">
+    <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C4 B6:B11 A6:A8 A11 A5:B5 E1:M3 E4:J4 M4">
+    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3 D5:D11 D4">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L6:L11">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="C5:C11 E5:H11">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
   <si>
     <t>TableTypeSetting</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>field_bool</t>
-  </si>
-  <si>
-    <t>{'公众号":"玩转游戏开发"}</t>
   </si>
 </sst>
 </file>
@@ -197,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -218,14 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,91 +236,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +273,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -353,8 +326,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,96 +374,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,19 +524,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,61 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,21 +565,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,6 +579,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,8 +618,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -634,22 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +673,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,147 +685,144 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1234,16 +1228,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -1275,10 +1269,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1324,7 +1318,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1359,7 +1353,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6">
@@ -1394,7 +1388,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7">
@@ -1432,7 +1426,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="D8" t="s">
@@ -1461,7 +1455,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9">
@@ -1496,7 +1490,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10">
@@ -1534,7 +1528,7 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11">
@@ -1678,16 +1672,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -1719,10 +1713,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1768,7 +1762,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C5">
@@ -1803,7 +1797,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C6">
@@ -1838,7 +1832,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C7">
@@ -1876,7 +1870,7 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
@@ -1905,7 +1899,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C9">
@@ -1940,7 +1934,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C10">
@@ -1978,7 +1972,7 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C11">
@@ -2013,42 +2007,42 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J5:J11">
@@ -2095,10 +2089,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2128,7 +2122,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E1" t="s">
@@ -2160,19 +2154,19 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
@@ -2204,13 +2198,13 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E3" t="s">
@@ -2251,19 +2245,18 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -2291,17 +2284,17 @@
         <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="b">
+      <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
@@ -2333,13 +2326,13 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C7">
         <v>60000</v>
       </c>
-      <c r="D7" s="2" t="b">
+      <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -2374,10 +2367,10 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="b">
+      <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -2406,13 +2399,13 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="b">
+      <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -2444,13 +2437,13 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="D10" s="2" t="b">
+      <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -2485,13 +2478,12 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" t="s">
         <v>46</v>
       </c>
@@ -2519,57 +2511,6 @@
       <c r="M11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:I11">

--- a/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="62">
   <si>
     <t>TableTypeSetting</t>
   </si>
@@ -39,6 +39,9 @@
     <t>JSON</t>
   </si>
   <si>
+    <t>自定义类型,解析为number数组</t>
+  </si>
+  <si>
     <t>多列对象:数字字段</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>json</t>
   </si>
   <si>
+    <t>nums</t>
+  </si>
+  <si>
     <t>mf:obj:int</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
     <t>field_json</t>
   </si>
   <si>
+    <t>field_custom_type</t>
+  </si>
+  <si>
     <t>obj:obj_field_int</t>
   </si>
   <si>
@@ -138,7 +147,13 @@
     <t>{"公众号":"玩转游戏开发"}</t>
   </si>
   <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
     <t>关注公众号</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>[2,2,3]</t>
@@ -194,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -221,22 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +251,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -256,7 +288,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,99 +379,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -374,25 +389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,157 +527,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +580,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,24 +605,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,22 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,17 +654,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,154 +685,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1181,15 +1196,15 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="29.375" customWidth="1"/>
-    <col min="12" max="12" width="28.25" customWidth="1"/>
+    <col min="7" max="8" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
+    <col min="13" max="13" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,98 +1241,107 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -1325,34 +1349,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1360,34 +1387,37 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
       <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -1395,66 +1425,72 @@
         <v>60000</v>
       </c>
       <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
         <v>60000</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
       <c r="L8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1462,34 +1498,37 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -1497,36 +1536,39 @@
         <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
         <v>39</v>
       </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
       <c r="L10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
@@ -1535,40 +1577,63 @@
         <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11">
+      <c r="I11">
         <v>300</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J5:J11">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K11">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD3 A4:I4 L4:XFD4 M5:XFD11 A5:E5 A11 $A12:$XFD1048576 A6:A8 B6:E11">
+  <conditionalFormatting sqref="L5:L11">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M11">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E11 A1:G4 A6:A8 $A12:$XFD1048576 A11 A5:E5 H1:XFD3 H4:J4 M4:XFD4 N5:XFD11">
     <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -1578,28 +1643,8 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G6:G11">
+  <conditionalFormatting sqref="G5:H11">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H6:H11">
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I6:I11">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K6:K11">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L6:L11">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1656,354 +1701,354 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>60000</v>
       </c>
       <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>60000</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>0.5</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2091,8 +2136,8 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2123,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2138,120 +2183,120 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2260,36 +2305,36 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -2298,36 +2343,36 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>60000</v>
@@ -2336,71 +2381,71 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>60000</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2409,36 +2454,36 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -2447,69 +2492,69 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>0.5</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>300</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/TableTypeSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="64">
   <si>
     <t>TableTypeSetting</t>
   </si>
@@ -39,6 +39,9 @@
     <t>JSON</t>
   </si>
   <si>
+    <t>没有值的一列</t>
+  </si>
+  <si>
     <t>自定义类型,解析为number数组</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>field_json</t>
+  </si>
+  <si>
+    <t>field_novalue</t>
   </si>
   <si>
     <t>field_custom_type</t>
@@ -209,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -230,7 +236,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,37 +347,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,96 +380,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,31 +395,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,151 +545,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +591,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +643,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,201 +686,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1196,12 +1202,505 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="9" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="29.375" customWidth="1"/>
+    <col min="14" max="14" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7">
+        <v>60000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J11">
+    <cfRule type="cellIs" dxfId="0" priority="11" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K11">
+    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L11">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M11">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N11">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E11 A1:F4 A12:F1048576 A5:E5 A6:A8 A11 I12:XFD1048576 O5:XFD11 N4:XFD4 I4:K4 I1:XFD3">
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H4 G12:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H11">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
     <col min="7" max="8" width="28.25" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="10" max="10" width="22.625" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="29.375" customWidth="1"/>
-    <col min="13" max="13" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1230,396 +1729,413 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="3">
-        <v>2</v>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="3">
-        <v>3</v>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C7">
         <v>60000</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>60000</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="3">
-        <v>5</v>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="3">
-        <v>6</v>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>0.5</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>300</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:I11">
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J11">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K11">
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1633,495 +2149,13 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:E11 A1:G4 A6:A8 $A12:$XFD1048576 A11 A5:E5 H1:XFD3 H4:J4 M4:XFD4 N5:XFD11">
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F6:F11">
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H11">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <v>60000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
-        <v>60000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
-        <v>300</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11">
-        <v>300</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J5:J11">
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:XFD11 $A12:$XFD14 B15:XFD15 $A16:$XFD1048576">
+  <conditionalFormatting sqref="A16:G1048576 B15:G15 A12:G14 H12:XFD1048576 O1:XFD11">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M3 A4:I4 L4:M4 M5:M11 A5:G5 A11 A6:A8 B6:G11">
+  <conditionalFormatting sqref="A1:G5 B6:G11 A6:A8 A11 H1:N3 H4:J4 M4:N4 N5:N11 H5:H11">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H6:H11">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I6:I11">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K6:K11">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L6:L11">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2134,10 +2168,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2150,14 +2184,15 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="30.375" customWidth="1"/>
     <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="30.375" customWidth="1"/>
-    <col min="13" max="13" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="30.375" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="30.375" customWidth="1"/>
+    <col min="14" max="14" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2183,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -2197,34 +2232,37 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -2238,65 +2276,71 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2305,36 +2349,36 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
         <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -2343,36 +2387,36 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
+        <v>44</v>
+      </c>
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>60000</v>
@@ -2381,71 +2425,71 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
         <v>60000</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2454,36 +2498,36 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9">
+        <v>44</v>
+      </c>
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -2492,103 +2536,103 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
         <v>0.5</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11">
+        <v>44</v>
+      </c>
+      <c r="J11">
         <v>300</v>
       </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I5:I11">
+  <conditionalFormatting sqref="J5:J11">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J11">
+  <conditionalFormatting sqref="K5:K11">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K11">
+  <conditionalFormatting sqref="L5:L11">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L11">
+  <conditionalFormatting sqref="M5:M11">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M11">
+  <conditionalFormatting sqref="N5:N11">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:C1048576 E12:XFD1048576 N1:XFD11">
+  <conditionalFormatting sqref="A12:C1048576 E12:XFD1048576 O1:XFD11">
     <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison11!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C4 B6:B11 A6:A8 A11 A5:B5 E1:M3 E4:J4 M4">
+  <conditionalFormatting sqref="A1:C4 B6:B11 A6:A8 A11 A5:B5 E1:I4 J1:N3 J4:K4 N4">
     <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -2598,7 +2642,7 @@
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C11 E5:H11">
+  <conditionalFormatting sqref="C5:C11 E5:I11">
     <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
